--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>CA-TYLZ7MIX</t>
+  </si>
+  <si>
+    <t>CA-GR9ZVVXL</t>
+  </si>
+  <si>
+    <t>CA-N1DCYO19</t>
+  </si>
+  <si>
+    <t>CA-PXLZAWCU</t>
+  </si>
+  <si>
+    <t>CA-3FNUOO34</t>
+  </si>
+  <si>
+    <t>CA-5EBR8U6D</t>
+  </si>
+  <si>
+    <t>MDL - Single Consultation</t>
+  </si>
+  <si>
+    <t>CA-TSMYA9T0</t>
+  </si>
+  <si>
+    <t>CA-CC5MALQX</t>
   </si>
 </sst>
 </file>
@@ -467,7 +491,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>CA-CC5MALQX</t>
+  </si>
+  <si>
+    <t>CA-QUK09908</t>
+  </si>
+  <si>
+    <t>CA-M8NXO317</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,24 @@
   </si>
   <si>
     <t>CA-M8NXO317</t>
+  </si>
+  <si>
+    <t>CA-PLERR7H7</t>
+  </si>
+  <si>
+    <t>CA-HP0W7CPX</t>
+  </si>
+  <si>
+    <t>CA-36XW1N07</t>
+  </si>
+  <si>
+    <t>CA-0CEU0TRP</t>
+  </si>
+  <si>
+    <t>CA-OUX4PI2W</t>
+  </si>
+  <si>
+    <t>CA-5R8HR2YT</t>
   </si>
 </sst>
 </file>
@@ -497,7 +515,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>CA-5R8HR2YT</t>
+  </si>
+  <si>
+    <t>CA-UV01WKWJ</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,60 @@
   </si>
   <si>
     <t>CA-UV01WKWJ</t>
+  </si>
+  <si>
+    <t>CA-OZAVRFTM</t>
+  </si>
+  <si>
+    <t>CA-ANCWO7CK</t>
+  </si>
+  <si>
+    <t>CA-JFSU3BGZ</t>
+  </si>
+  <si>
+    <t>CA-LUGAMY4Z</t>
+  </si>
+  <si>
+    <t>CA-VUU5P2QA</t>
+  </si>
+  <si>
+    <t>CA-FTQOBAMC</t>
+  </si>
+  <si>
+    <t>CA-Q74EE7JP</t>
+  </si>
+  <si>
+    <t>CA-F4AVH6MF</t>
+  </si>
+  <si>
+    <t>CA-45NDQFV3</t>
+  </si>
+  <si>
+    <t>CA-8GAGMFHB</t>
+  </si>
+  <si>
+    <t>CA-V7WYO1FY</t>
+  </si>
+  <si>
+    <t>CA-9RN1QGW9</t>
+  </si>
+  <si>
+    <t>CA-41PLCW5R</t>
+  </si>
+  <si>
+    <t>CA-VJD1MW18</t>
+  </si>
+  <si>
+    <t>CA-CDPAEV43</t>
+  </si>
+  <si>
+    <t>CA-40G2KAWJ</t>
+  </si>
+  <si>
+    <t>CA-3TJL2AWW</t>
+  </si>
+  <si>
+    <t>CA-BOYI1GVD</t>
   </si>
 </sst>
 </file>
@@ -518,7 +572,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -200,6 +200,270 @@
   </si>
   <si>
     <t>CA-BOYI1GVD</t>
+  </si>
+  <si>
+    <t>CA-FRRQTGAQ</t>
+  </si>
+  <si>
+    <t>CA-1I80GXRI</t>
+  </si>
+  <si>
+    <t>CA-1QJ7RH2Y</t>
+  </si>
+  <si>
+    <t>CA-GEDF3CJB</t>
+  </si>
+  <si>
+    <t>CA-4NI6OJLV</t>
+  </si>
+  <si>
+    <t>CA-VTHZAWHN</t>
+  </si>
+  <si>
+    <t>CA-MI2RZCTH</t>
+  </si>
+  <si>
+    <t>CA-HT5M5JPD</t>
+  </si>
+  <si>
+    <t>CA-VAWFQGIE</t>
+  </si>
+  <si>
+    <t>CA-DX573M36</t>
+  </si>
+  <si>
+    <t>CA-GE2LN1BP</t>
+  </si>
+  <si>
+    <t>CA-F2RCALF4</t>
+  </si>
+  <si>
+    <t>CA-HVL5P0MP</t>
+  </si>
+  <si>
+    <t>CA-E149ND3W</t>
+  </si>
+  <si>
+    <t>CA-VYQZPM3O</t>
+  </si>
+  <si>
+    <t>CA-B72ARIJX</t>
+  </si>
+  <si>
+    <t>CA-9WPYSGU1</t>
+  </si>
+  <si>
+    <t>CA-NSVFJIYN</t>
+  </si>
+  <si>
+    <t>CA-X1W27NR1</t>
+  </si>
+  <si>
+    <t>CA-CK78NW36</t>
+  </si>
+  <si>
+    <t>CA-DOT8OPEB</t>
+  </si>
+  <si>
+    <t>CA-M117D7K4</t>
+  </si>
+  <si>
+    <t>CA-3FUKGJFB</t>
+  </si>
+  <si>
+    <t>CA-QRXJNA7K</t>
+  </si>
+  <si>
+    <t>CA-PV50W6NL</t>
+  </si>
+  <si>
+    <t>CA-L4ROQRT5</t>
+  </si>
+  <si>
+    <t>CA-H7YSEFMS</t>
+  </si>
+  <si>
+    <t>CA-HLIXTRO8</t>
+  </si>
+  <si>
+    <t>CA-UO6ZQIIR</t>
+  </si>
+  <si>
+    <t>CA-2N0MLXRA</t>
+  </si>
+  <si>
+    <t>CA-N6H52UX5</t>
+  </si>
+  <si>
+    <t>CA-5GMRPU5M</t>
+  </si>
+  <si>
+    <t>CA-HBB2INWW</t>
+  </si>
+  <si>
+    <t>CA-ZT20KDP3</t>
+  </si>
+  <si>
+    <t>CA-4NAJ7IYQ</t>
+  </si>
+  <si>
+    <t>CA-R2L8QYDK</t>
+  </si>
+  <si>
+    <t>CA-0RDBW0MN</t>
+  </si>
+  <si>
+    <t>CA-KPC5DOXD</t>
+  </si>
+  <si>
+    <t>CA-UTNN4ZNS</t>
+  </si>
+  <si>
+    <t>CA-4CZ1J7GY</t>
+  </si>
+  <si>
+    <t>CA-8X8P1ELX</t>
+  </si>
+  <si>
+    <t>CA-LW7HS1U9</t>
+  </si>
+  <si>
+    <t>CA-TL7IQ3LQ</t>
+  </si>
+  <si>
+    <t>CA-YYIKMVFY</t>
+  </si>
+  <si>
+    <t>CA-GES879DF</t>
+  </si>
+  <si>
+    <t>CA-HYY1ILU5</t>
+  </si>
+  <si>
+    <t>CA-MK0B8PQ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dac Nguyen</t>
+  </si>
+  <si>
+    <t>CA-X4AGPTZ0</t>
+  </si>
+  <si>
+    <t>CA-4EKXHXO4</t>
+  </si>
+  <si>
+    <t>CA-KYZ9U9Y8</t>
+  </si>
+  <si>
+    <t>CA-D2MQD88L</t>
+  </si>
+  <si>
+    <t>CA-MV80PYB7</t>
+  </si>
+  <si>
+    <t>CA-CYZSXE10</t>
+  </si>
+  <si>
+    <t>CA-4GU3XJOO</t>
+  </si>
+  <si>
+    <t>CA-Q2K3OVGB</t>
+  </si>
+  <si>
+    <t>CA-NGQ0POWZ</t>
+  </si>
+  <si>
+    <t>CA-R6JL5FDJ</t>
+  </si>
+  <si>
+    <t>CA-SB193KS8</t>
+  </si>
+  <si>
+    <t>CA-KYKEWPLB</t>
+  </si>
+  <si>
+    <t>CA-9EOBE29T</t>
+  </si>
+  <si>
+    <t>CA-LL67OGBR</t>
+  </si>
+  <si>
+    <t>CA-GAQLSQ1X</t>
+  </si>
+  <si>
+    <t>CA-KKO7DIJ9</t>
+  </si>
+  <si>
+    <t>CA-1JFOMFK1</t>
+  </si>
+  <si>
+    <t>CA-ZYD36B3P</t>
+  </si>
+  <si>
+    <t>CA-F2XQJIVT</t>
+  </si>
+  <si>
+    <t>CA-B9H5VMTA</t>
+  </si>
+  <si>
+    <t>CA-26W1EP5W</t>
+  </si>
+  <si>
+    <t>CA-ODFMUEYW</t>
+  </si>
+  <si>
+    <t>CA-UFWTRIBE</t>
+  </si>
+  <si>
+    <t>CA-16V7TYY5</t>
+  </si>
+  <si>
+    <t>CA-01BWAX5B</t>
+  </si>
+  <si>
+    <t>CA-6NHYK3NQ</t>
+  </si>
+  <si>
+    <t>CA-37WJ8CBR</t>
+  </si>
+  <si>
+    <t>CA-XK402GC8</t>
+  </si>
+  <si>
+    <t>CA-YGZIEIS9</t>
+  </si>
+  <si>
+    <t>CA-60C9WKIE</t>
+  </si>
+  <si>
+    <t>CA-8I9BBR7G</t>
+  </si>
+  <si>
+    <t>CA-MJNZ7RKK</t>
+  </si>
+  <si>
+    <t>CA-OIGC71II</t>
+  </si>
+  <si>
+    <t>CA-6C0Z05BJ</t>
+  </si>
+  <si>
+    <t>CA-M1GXXCCN</t>
+  </si>
+  <si>
+    <t>CA-1TVDC2H1</t>
+  </si>
+  <si>
+    <t>CA-NUVY4PEI</t>
+  </si>
+  <si>
+    <t>CA-18CDQWVW</t>
+  </si>
+  <si>
+    <t>CA-E8095TUK</t>
+  </si>
+  <si>
+    <t>CA-V47AB91P</t>
   </si>
 </sst>
 </file>
@@ -572,7 +836,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -464,6 +464,33 @@
   </si>
   <si>
     <t>CA-V47AB91P</t>
+  </si>
+  <si>
+    <t>CA-S4LE7EYK</t>
+  </si>
+  <si>
+    <t>CA-ECA8ZVCB</t>
+  </si>
+  <si>
+    <t>CA-C77AY3UZ</t>
+  </si>
+  <si>
+    <t>CA-GGOVXL4M</t>
+  </si>
+  <si>
+    <t>CA-J66DSV4B</t>
+  </si>
+  <si>
+    <t>CA-6X97D290</t>
+  </si>
+  <si>
+    <t>CA-0XCMLUCR</t>
+  </si>
+  <si>
+    <t>CA-I29ZTZ20</t>
+  </si>
+  <si>
+    <t>CA-DNLQDJ5F</t>
   </si>
 </sst>
 </file>
@@ -836,7 +863,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prod\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prod_RCE\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D72EFB-EA6B-49F8-B67D-CA6C06E087EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F4A9F-5CE5-41E9-8AC9-85BA2450E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -88,409 +88,7 @@
     <t>6TR7FG7RT65</t>
   </si>
   <si>
-    <t>CA-SI3VQCZT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t>CA-TYLZ7MIX</t>
-  </si>
-  <si>
-    <t>CA-GR9ZVVXL</t>
-  </si>
-  <si>
-    <t>CA-N1DCYO19</t>
-  </si>
-  <si>
-    <t>CA-PXLZAWCU</t>
-  </si>
-  <si>
-    <t>CA-3FNUOO34</t>
-  </si>
-  <si>
-    <t>CA-5EBR8U6D</t>
-  </si>
-  <si>
-    <t>MDL - Single Consultation</t>
-  </si>
-  <si>
-    <t>CA-TSMYA9T0</t>
-  </si>
-  <si>
-    <t>CA-CC5MALQX</t>
-  </si>
-  <si>
-    <t>CA-QUK09908</t>
-  </si>
-  <si>
-    <t>CA-M8NXO317</t>
-  </si>
-  <si>
-    <t>CA-PLERR7H7</t>
-  </si>
-  <si>
-    <t>CA-HP0W7CPX</t>
-  </si>
-  <si>
-    <t>CA-36XW1N07</t>
-  </si>
-  <si>
-    <t>CA-0CEU0TRP</t>
-  </si>
-  <si>
-    <t>CA-OUX4PI2W</t>
-  </si>
-  <si>
-    <t>CA-5R8HR2YT</t>
-  </si>
-  <si>
-    <t>CA-UV01WKWJ</t>
-  </si>
-  <si>
-    <t>CA-OZAVRFTM</t>
-  </si>
-  <si>
-    <t>CA-ANCWO7CK</t>
-  </si>
-  <si>
-    <t>CA-JFSU3BGZ</t>
-  </si>
-  <si>
-    <t>CA-LUGAMY4Z</t>
-  </si>
-  <si>
-    <t>CA-VUU5P2QA</t>
-  </si>
-  <si>
-    <t>CA-FTQOBAMC</t>
-  </si>
-  <si>
-    <t>CA-Q74EE7JP</t>
-  </si>
-  <si>
-    <t>CA-F4AVH6MF</t>
-  </si>
-  <si>
-    <t>CA-45NDQFV3</t>
-  </si>
-  <si>
-    <t>CA-8GAGMFHB</t>
-  </si>
-  <si>
-    <t>CA-V7WYO1FY</t>
-  </si>
-  <si>
-    <t>CA-9RN1QGW9</t>
-  </si>
-  <si>
-    <t>CA-41PLCW5R</t>
-  </si>
-  <si>
-    <t>CA-VJD1MW18</t>
-  </si>
-  <si>
-    <t>CA-CDPAEV43</t>
-  </si>
-  <si>
-    <t>CA-40G2KAWJ</t>
-  </si>
-  <si>
-    <t>CA-3TJL2AWW</t>
-  </si>
-  <si>
-    <t>CA-BOYI1GVD</t>
-  </si>
-  <si>
-    <t>CA-FRRQTGAQ</t>
-  </si>
-  <si>
-    <t>CA-1I80GXRI</t>
-  </si>
-  <si>
-    <t>CA-1QJ7RH2Y</t>
-  </si>
-  <si>
-    <t>CA-GEDF3CJB</t>
-  </si>
-  <si>
-    <t>CA-4NI6OJLV</t>
-  </si>
-  <si>
-    <t>CA-VTHZAWHN</t>
-  </si>
-  <si>
-    <t>CA-MI2RZCTH</t>
-  </si>
-  <si>
-    <t>CA-HT5M5JPD</t>
-  </si>
-  <si>
-    <t>CA-VAWFQGIE</t>
-  </si>
-  <si>
-    <t>CA-DX573M36</t>
-  </si>
-  <si>
-    <t>CA-GE2LN1BP</t>
-  </si>
-  <si>
-    <t>CA-F2RCALF4</t>
-  </si>
-  <si>
-    <t>CA-HVL5P0MP</t>
-  </si>
-  <si>
-    <t>CA-E149ND3W</t>
-  </si>
-  <si>
-    <t>CA-VYQZPM3O</t>
-  </si>
-  <si>
-    <t>CA-B72ARIJX</t>
-  </si>
-  <si>
-    <t>CA-9WPYSGU1</t>
-  </si>
-  <si>
-    <t>CA-NSVFJIYN</t>
-  </si>
-  <si>
-    <t>CA-X1W27NR1</t>
-  </si>
-  <si>
-    <t>CA-CK78NW36</t>
-  </si>
-  <si>
-    <t>CA-DOT8OPEB</t>
-  </si>
-  <si>
-    <t>CA-M117D7K4</t>
-  </si>
-  <si>
-    <t>CA-3FUKGJFB</t>
-  </si>
-  <si>
-    <t>CA-QRXJNA7K</t>
-  </si>
-  <si>
-    <t>CA-PV50W6NL</t>
-  </si>
-  <si>
-    <t>CA-L4ROQRT5</t>
-  </si>
-  <si>
-    <t>CA-H7YSEFMS</t>
-  </si>
-  <si>
-    <t>CA-HLIXTRO8</t>
-  </si>
-  <si>
-    <t>CA-UO6ZQIIR</t>
-  </si>
-  <si>
-    <t>CA-2N0MLXRA</t>
-  </si>
-  <si>
-    <t>CA-N6H52UX5</t>
-  </si>
-  <si>
-    <t>CA-5GMRPU5M</t>
-  </si>
-  <si>
-    <t>CA-HBB2INWW</t>
-  </si>
-  <si>
-    <t>CA-ZT20KDP3</t>
-  </si>
-  <si>
-    <t>CA-4NAJ7IYQ</t>
-  </si>
-  <si>
-    <t>CA-R2L8QYDK</t>
-  </si>
-  <si>
-    <t>CA-0RDBW0MN</t>
-  </si>
-  <si>
-    <t>CA-KPC5DOXD</t>
-  </si>
-  <si>
-    <t>CA-UTNN4ZNS</t>
-  </si>
-  <si>
-    <t>CA-4CZ1J7GY</t>
-  </si>
-  <si>
-    <t>CA-8X8P1ELX</t>
-  </si>
-  <si>
-    <t>CA-LW7HS1U9</t>
-  </si>
-  <si>
-    <t>CA-TL7IQ3LQ</t>
-  </si>
-  <si>
-    <t>CA-YYIKMVFY</t>
-  </si>
-  <si>
-    <t>CA-GES879DF</t>
-  </si>
-  <si>
-    <t>CA-HYY1ILU5</t>
-  </si>
-  <si>
-    <t>CA-MK0B8PQ9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dac Nguyen</t>
-  </si>
-  <si>
-    <t>CA-X4AGPTZ0</t>
-  </si>
-  <si>
-    <t>CA-4EKXHXO4</t>
-  </si>
-  <si>
-    <t>CA-KYZ9U9Y8</t>
-  </si>
-  <si>
-    <t>CA-D2MQD88L</t>
-  </si>
-  <si>
-    <t>CA-MV80PYB7</t>
-  </si>
-  <si>
-    <t>CA-CYZSXE10</t>
-  </si>
-  <si>
-    <t>CA-4GU3XJOO</t>
-  </si>
-  <si>
-    <t>CA-Q2K3OVGB</t>
-  </si>
-  <si>
-    <t>CA-NGQ0POWZ</t>
-  </si>
-  <si>
-    <t>CA-R6JL5FDJ</t>
-  </si>
-  <si>
-    <t>CA-SB193KS8</t>
-  </si>
-  <si>
-    <t>CA-KYKEWPLB</t>
-  </si>
-  <si>
-    <t>CA-9EOBE29T</t>
-  </si>
-  <si>
-    <t>CA-LL67OGBR</t>
-  </si>
-  <si>
-    <t>CA-GAQLSQ1X</t>
-  </si>
-  <si>
-    <t>CA-KKO7DIJ9</t>
-  </si>
-  <si>
-    <t>CA-1JFOMFK1</t>
-  </si>
-  <si>
-    <t>CA-ZYD36B3P</t>
-  </si>
-  <si>
-    <t>CA-F2XQJIVT</t>
-  </si>
-  <si>
-    <t>CA-B9H5VMTA</t>
-  </si>
-  <si>
-    <t>CA-26W1EP5W</t>
-  </si>
-  <si>
-    <t>CA-ODFMUEYW</t>
-  </si>
-  <si>
-    <t>CA-UFWTRIBE</t>
-  </si>
-  <si>
-    <t>CA-16V7TYY5</t>
-  </si>
-  <si>
-    <t>CA-01BWAX5B</t>
-  </si>
-  <si>
-    <t>CA-6NHYK3NQ</t>
-  </si>
-  <si>
-    <t>CA-37WJ8CBR</t>
-  </si>
-  <si>
-    <t>CA-XK402GC8</t>
-  </si>
-  <si>
-    <t>CA-YGZIEIS9</t>
-  </si>
-  <si>
-    <t>CA-60C9WKIE</t>
-  </si>
-  <si>
-    <t>CA-8I9BBR7G</t>
-  </si>
-  <si>
-    <t>CA-MJNZ7RKK</t>
-  </si>
-  <si>
-    <t>CA-OIGC71II</t>
-  </si>
-  <si>
-    <t>CA-6C0Z05BJ</t>
-  </si>
-  <si>
-    <t>CA-M1GXXCCN</t>
-  </si>
-  <si>
-    <t>CA-1TVDC2H1</t>
-  </si>
-  <si>
-    <t>CA-NUVY4PEI</t>
-  </si>
-  <si>
-    <t>CA-18CDQWVW</t>
-  </si>
-  <si>
-    <t>CA-E8095TUK</t>
-  </si>
-  <si>
-    <t>CA-V47AB91P</t>
-  </si>
-  <si>
-    <t>CA-S4LE7EYK</t>
-  </si>
-  <si>
-    <t>CA-ECA8ZVCB</t>
-  </si>
-  <si>
-    <t>CA-C77AY3UZ</t>
-  </si>
-  <si>
-    <t>CA-GGOVXL4M</t>
-  </si>
-  <si>
-    <t>CA-J66DSV4B</t>
-  </si>
-  <si>
-    <t>CA-6X97D290</t>
-  </si>
-  <si>
-    <t>CA-0XCMLUCR</t>
-  </si>
-  <si>
-    <t>CA-I29ZTZ20</t>
-  </si>
-  <si>
-    <t>CA-DNLQDJ5F</t>
+    <t>CA-6TGT9325</t>
   </si>
 </sst>
 </file>
@@ -826,10 +424,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="25.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125"/>
-    <col min="4" max="8" customWidth="true" width="14.7109375"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625"/>
+    <col min="1" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,7 +461,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
